--- a/data/pca/factorExposure/factorExposure_2012-04-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-04-02.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01658252942418938</v>
+        <v>-0.01655184927513536</v>
       </c>
       <c r="C2">
-        <v>-0.03538872818746832</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02912245854240663</v>
+      </c>
+      <c r="D2">
+        <v>-0.0003426951277516004</v>
+      </c>
+      <c r="E2">
+        <v>0.009318997587744522</v>
+      </c>
+      <c r="F2">
+        <v>-0.0075082517024532</v>
+      </c>
+      <c r="G2">
+        <v>0.008395402093064523</v>
+      </c>
+      <c r="H2">
+        <v>0.05945271785947736</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07472157391393544</v>
+        <v>-0.08840296500652819</v>
       </c>
       <c r="C4">
-        <v>-0.05426263923515339</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.03831306706176255</v>
+      </c>
+      <c r="D4">
+        <v>-0.06563796272774951</v>
+      </c>
+      <c r="E4">
+        <v>0.01724144369949752</v>
+      </c>
+      <c r="F4">
+        <v>-0.02834618229111862</v>
+      </c>
+      <c r="G4">
+        <v>0.004831226008701865</v>
+      </c>
+      <c r="H4">
+        <v>-0.04323670087869281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1077020008914032</v>
+        <v>-0.1197298664031532</v>
       </c>
       <c r="C6">
-        <v>-0.05621480093695005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.03355636523246736</v>
+      </c>
+      <c r="D6">
+        <v>-0.008531522423808426</v>
+      </c>
+      <c r="E6">
+        <v>-0.004226313953256881</v>
+      </c>
+      <c r="F6">
+        <v>-0.06379142633267265</v>
+      </c>
+      <c r="G6">
+        <v>0.03168015748776226</v>
+      </c>
+      <c r="H6">
+        <v>0.09717479638036174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04934050512180062</v>
+        <v>-0.06507288101426413</v>
       </c>
       <c r="C7">
-        <v>-0.02719205864085635</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.01904505712819199</v>
+      </c>
+      <c r="D7">
+        <v>-0.04505084791577199</v>
+      </c>
+      <c r="E7">
+        <v>0.04003264974911944</v>
+      </c>
+      <c r="F7">
+        <v>-0.03413591403618479</v>
+      </c>
+      <c r="G7">
+        <v>-0.04336219635721662</v>
+      </c>
+      <c r="H7">
+        <v>-0.02039161084904466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0373844102783228</v>
+        <v>-0.04122507077223578</v>
       </c>
       <c r="C8">
-        <v>-0.01246107051430851</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.008123477614703457</v>
+      </c>
+      <c r="D8">
+        <v>-0.02055663489515958</v>
+      </c>
+      <c r="E8">
+        <v>0.03474423365895187</v>
+      </c>
+      <c r="F8">
+        <v>-0.04812142861482532</v>
+      </c>
+      <c r="G8">
+        <v>0.04435333590432017</v>
+      </c>
+      <c r="H8">
+        <v>-0.007148078641970999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06739050895992744</v>
+        <v>-0.07972334477510427</v>
       </c>
       <c r="C9">
-        <v>-0.04503113637141971</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.0295826205704553</v>
+      </c>
+      <c r="D9">
+        <v>-0.06329034003320902</v>
+      </c>
+      <c r="E9">
+        <v>0.0408181726816528</v>
+      </c>
+      <c r="F9">
+        <v>-0.02860129755466004</v>
+      </c>
+      <c r="G9">
+        <v>0.004726754087539613</v>
+      </c>
+      <c r="H9">
+        <v>-0.05410495511643246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02853515276813344</v>
+        <v>-0.03430391353634178</v>
       </c>
       <c r="C10">
-        <v>-0.03439701152504122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.04173206129883989</v>
+      </c>
+      <c r="D10">
+        <v>0.1707474630067964</v>
+      </c>
+      <c r="E10">
+        <v>0.05377444677203415</v>
+      </c>
+      <c r="F10">
+        <v>-0.04172204642809822</v>
+      </c>
+      <c r="G10">
+        <v>-0.03831620346837136</v>
+      </c>
+      <c r="H10">
+        <v>0.0375847322166307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07021981378435069</v>
+        <v>-0.07647360349760669</v>
       </c>
       <c r="C11">
-        <v>-0.04785086406766498</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.02765999362542606</v>
+      </c>
+      <c r="D11">
+        <v>-0.06262819319227783</v>
+      </c>
+      <c r="E11">
+        <v>0.0007867862834337267</v>
+      </c>
+      <c r="F11">
+        <v>-0.02442803878562597</v>
+      </c>
+      <c r="G11">
+        <v>-0.009566007014892113</v>
+      </c>
+      <c r="H11">
+        <v>-0.1012788747655391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05725600247533816</v>
+        <v>-0.06698094617979122</v>
       </c>
       <c r="C12">
-        <v>-0.05150396489285582</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03581769788666663</v>
+      </c>
+      <c r="D12">
+        <v>-0.04867315891361593</v>
+      </c>
+      <c r="E12">
+        <v>0.01607173627940225</v>
+      </c>
+      <c r="F12">
+        <v>-0.01629795461085298</v>
+      </c>
+      <c r="G12">
+        <v>-0.004031430434473036</v>
+      </c>
+      <c r="H12">
+        <v>-0.05694890352184145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05863253648771799</v>
+        <v>-0.06504849956983144</v>
       </c>
       <c r="C13">
-        <v>-0.04104299408906261</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.02576935812236759</v>
+      </c>
+      <c r="D13">
+        <v>-0.04285852935443268</v>
+      </c>
+      <c r="E13">
+        <v>0.01551061765578302</v>
+      </c>
+      <c r="F13">
+        <v>-0.001725649594921282</v>
+      </c>
+      <c r="G13">
+        <v>-0.0048272514675385</v>
+      </c>
+      <c r="H13">
+        <v>-0.05245592657818218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03235551345987914</v>
+        <v>-0.04157263515694495</v>
       </c>
       <c r="C14">
-        <v>-0.03188829213758944</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.02829166743235356</v>
+      </c>
+      <c r="D14">
+        <v>-0.004161884598571775</v>
+      </c>
+      <c r="E14">
+        <v>0.03376908238405455</v>
+      </c>
+      <c r="F14">
+        <v>-0.01182486526835847</v>
+      </c>
+      <c r="G14">
+        <v>0.009390952522782678</v>
+      </c>
+      <c r="H14">
+        <v>-0.06100307286043802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03870401764259131</v>
+        <v>-0.03990813859301232</v>
       </c>
       <c r="C15">
-        <v>-0.009971314236084919</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.002770500871697329</v>
+      </c>
+      <c r="D15">
+        <v>-0.003292987170554467</v>
+      </c>
+      <c r="E15">
+        <v>0.04105995845341458</v>
+      </c>
+      <c r="F15">
+        <v>0.007455438088724451</v>
+      </c>
+      <c r="G15">
+        <v>0.02463347901028565</v>
+      </c>
+      <c r="H15">
+        <v>-0.04139790883197982</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06033163743483903</v>
+        <v>-0.07031188298812074</v>
       </c>
       <c r="C16">
-        <v>-0.04318225095581497</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02801688749480247</v>
+      </c>
+      <c r="D16">
+        <v>-0.06256908402678955</v>
+      </c>
+      <c r="E16">
+        <v>0.009631764534614258</v>
+      </c>
+      <c r="F16">
+        <v>-0.02152841661843598</v>
+      </c>
+      <c r="G16">
+        <v>-0.007326013799329211</v>
+      </c>
+      <c r="H16">
+        <v>-0.06267747198871727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06413616076694904</v>
+        <v>-0.06332944040555918</v>
       </c>
       <c r="C20">
-        <v>-0.03271535291871574</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01371688878498453</v>
+      </c>
+      <c r="D20">
+        <v>-0.03971221666243633</v>
+      </c>
+      <c r="E20">
+        <v>0.03457419951141301</v>
+      </c>
+      <c r="F20">
+        <v>-0.01476093098921053</v>
+      </c>
+      <c r="G20">
+        <v>0.008298426450808296</v>
+      </c>
+      <c r="H20">
+        <v>-0.05668323631706462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0236972401476347</v>
+        <v>-0.02433347054513094</v>
       </c>
       <c r="C21">
-        <v>0.002471301788621872</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.009454609525768124</v>
+      </c>
+      <c r="D21">
+        <v>-0.02716531969449733</v>
+      </c>
+      <c r="E21">
+        <v>0.03932358552581694</v>
+      </c>
+      <c r="F21">
+        <v>0.01419833053536993</v>
+      </c>
+      <c r="G21">
+        <v>0.01190918167043739</v>
+      </c>
+      <c r="H21">
+        <v>0.04306979377034805</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07470555652595828</v>
+        <v>-0.07110838597573294</v>
       </c>
       <c r="C22">
-        <v>-0.05819302043282573</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.03744599622605228</v>
+      </c>
+      <c r="D22">
+        <v>-0.06505886384716104</v>
+      </c>
+      <c r="E22">
+        <v>0.5547299575248682</v>
+      </c>
+      <c r="F22">
+        <v>0.2663567320045793</v>
+      </c>
+      <c r="G22">
+        <v>-0.05598217093479912</v>
+      </c>
+      <c r="H22">
+        <v>0.1839405986788218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07570339971179216</v>
+        <v>-0.07172840952778119</v>
       </c>
       <c r="C23">
-        <v>-0.05712415322556225</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.03614345947679025</v>
+      </c>
+      <c r="D23">
+        <v>-0.06601415133186227</v>
+      </c>
+      <c r="E23">
+        <v>0.5543861840009006</v>
+      </c>
+      <c r="F23">
+        <v>0.2652711503359047</v>
+      </c>
+      <c r="G23">
+        <v>-0.05435716517293345</v>
+      </c>
+      <c r="H23">
+        <v>0.1791400736470033</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07060323908506379</v>
+        <v>-0.07998773309663421</v>
       </c>
       <c r="C24">
-        <v>-0.0519321663385138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03366749745266365</v>
+      </c>
+      <c r="D24">
+        <v>-0.05872837744913738</v>
+      </c>
+      <c r="E24">
+        <v>0.02103327370726496</v>
+      </c>
+      <c r="F24">
+        <v>-0.03030156910553856</v>
+      </c>
+      <c r="G24">
+        <v>0.002387730532488853</v>
+      </c>
+      <c r="H24">
+        <v>-0.07059028127689182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07036299475860396</v>
+        <v>-0.07742434000321013</v>
       </c>
       <c r="C25">
-        <v>-0.05746264825422842</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03830580166680324</v>
+      </c>
+      <c r="D25">
+        <v>-0.05144275545949396</v>
+      </c>
+      <c r="E25">
+        <v>0.02265736589684697</v>
+      </c>
+      <c r="F25">
+        <v>-0.02372284453059165</v>
+      </c>
+      <c r="G25">
+        <v>0.01325961716568235</v>
+      </c>
+      <c r="H25">
+        <v>-0.07294612597457495</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04429592997118476</v>
+        <v>-0.04720996368824681</v>
       </c>
       <c r="C26">
-        <v>-0.009785672444008605</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.001563119773823254</v>
+      </c>
+      <c r="D26">
+        <v>-0.01715016372316143</v>
+      </c>
+      <c r="E26">
+        <v>0.05414008748598869</v>
+      </c>
+      <c r="F26">
+        <v>-0.01812966769647241</v>
+      </c>
+      <c r="G26">
+        <v>-0.008038531157830433</v>
+      </c>
+      <c r="H26">
+        <v>-0.06091565187446246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05341826841357376</v>
+        <v>-0.06270659044094624</v>
       </c>
       <c r="C28">
-        <v>-0.07396771481203306</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.08294751444311189</v>
+      </c>
+      <c r="D28">
+        <v>0.3082726832573467</v>
+      </c>
+      <c r="E28">
+        <v>0.02848514380757671</v>
+      </c>
+      <c r="F28">
+        <v>-0.05723751409470962</v>
+      </c>
+      <c r="G28">
+        <v>0.02943094519343858</v>
+      </c>
+      <c r="H28">
+        <v>0.03676878784568528</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04053420406927532</v>
+        <v>-0.0484976932195308</v>
       </c>
       <c r="C29">
-        <v>-0.03233108107071729</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02598563352285634</v>
+      </c>
+      <c r="D29">
+        <v>-0.004308319086233495</v>
+      </c>
+      <c r="E29">
+        <v>0.05709410468885862</v>
+      </c>
+      <c r="F29">
+        <v>0.002822660641119374</v>
+      </c>
+      <c r="G29">
+        <v>-0.008303025297372283</v>
+      </c>
+      <c r="H29">
+        <v>-0.0861873146486422</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.126822838238222</v>
+        <v>-0.1328197171954236</v>
       </c>
       <c r="C30">
-        <v>-0.09587969523547521</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.06420744576591225</v>
+      </c>
+      <c r="D30">
+        <v>-0.06950269948327448</v>
+      </c>
+      <c r="E30">
+        <v>0.08368752530055507</v>
+      </c>
+      <c r="F30">
+        <v>0.02405389557811779</v>
+      </c>
+      <c r="G30">
+        <v>0.06734107366460181</v>
+      </c>
+      <c r="H30">
+        <v>0.01870656450818804</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04272063627967881</v>
+        <v>-0.04902486333324417</v>
       </c>
       <c r="C31">
-        <v>-0.0209330077755123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01257223339994201</v>
+      </c>
+      <c r="D31">
+        <v>-0.02455978395609192</v>
+      </c>
+      <c r="E31">
+        <v>0.03056244935871402</v>
+      </c>
+      <c r="F31">
+        <v>-0.007333027652125563</v>
+      </c>
+      <c r="G31">
+        <v>-0.02710521636860723</v>
+      </c>
+      <c r="H31">
+        <v>-0.06537624965317412</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03569990941797456</v>
+        <v>-0.03829101343926773</v>
       </c>
       <c r="C32">
-        <v>-0.02212467444449305</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01574490138416255</v>
+      </c>
+      <c r="D32">
+        <v>-0.01098220003322932</v>
+      </c>
+      <c r="E32">
+        <v>0.06770542573726449</v>
+      </c>
+      <c r="F32">
+        <v>0.02370330555152692</v>
+      </c>
+      <c r="G32">
+        <v>0.03069075113113678</v>
+      </c>
+      <c r="H32">
+        <v>-0.06363797712301306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08141744533613976</v>
+        <v>-0.09539380927031416</v>
       </c>
       <c r="C33">
-        <v>-0.044578690951375</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.02664854487930221</v>
+      </c>
+      <c r="D33">
+        <v>-0.04961549149494375</v>
+      </c>
+      <c r="E33">
+        <v>0.01569564685554865</v>
+      </c>
+      <c r="F33">
+        <v>0.0002355150478144367</v>
+      </c>
+      <c r="G33">
+        <v>-0.01346824624393506</v>
+      </c>
+      <c r="H33">
+        <v>-0.07607265386970655</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05566166791270442</v>
+        <v>-0.06196672924276848</v>
       </c>
       <c r="C34">
-        <v>-0.02903355468043936</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.013527527185197</v>
+      </c>
+      <c r="D34">
+        <v>-0.05397643437260084</v>
+      </c>
+      <c r="E34">
+        <v>0.01208973399902956</v>
+      </c>
+      <c r="F34">
+        <v>-0.0137456307385845</v>
+      </c>
+      <c r="G34">
+        <v>0.0032617449881078</v>
+      </c>
+      <c r="H34">
+        <v>-0.06180705313432652</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03695739117183976</v>
+        <v>-0.04009797688734733</v>
       </c>
       <c r="C35">
-        <v>-0.008698928971277184</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.002045184916663358</v>
+      </c>
+      <c r="D35">
+        <v>-0.00608018395194547</v>
+      </c>
+      <c r="E35">
+        <v>0.01766870248774825</v>
+      </c>
+      <c r="F35">
+        <v>0.0164215113533523</v>
+      </c>
+      <c r="G35">
+        <v>-0.01263483447452925</v>
+      </c>
+      <c r="H35">
+        <v>-0.02948497462521081</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02024270547234283</v>
+        <v>-0.02713613821081331</v>
       </c>
       <c r="C36">
-        <v>-0.01733574932797259</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01362470944317264</v>
+      </c>
+      <c r="D36">
+        <v>-0.01185998635589088</v>
+      </c>
+      <c r="E36">
+        <v>0.04608790474278222</v>
+      </c>
+      <c r="F36">
+        <v>-0.01130113258567208</v>
+      </c>
+      <c r="G36">
+        <v>-0.01068562890615042</v>
+      </c>
+      <c r="H36">
+        <v>-0.04967586765249167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03922617330013879</v>
+        <v>-0.04329219579056404</v>
       </c>
       <c r="C38">
-        <v>-0.002921939691658366</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.002893533299859644</v>
+      </c>
+      <c r="D38">
+        <v>-0.01599279659210409</v>
+      </c>
+      <c r="E38">
+        <v>0.0553434929182489</v>
+      </c>
+      <c r="F38">
+        <v>0.02252876453875497</v>
+      </c>
+      <c r="G38">
+        <v>0.01309126688435268</v>
+      </c>
+      <c r="H38">
+        <v>-0.01983403641611533</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.08987666946640016</v>
+        <v>-0.1022329854886338</v>
       </c>
       <c r="C39">
-        <v>-0.07190700190170803</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.04934270369144794</v>
+      </c>
+      <c r="D39">
+        <v>-0.06631961755333397</v>
+      </c>
+      <c r="E39">
+        <v>0.002822810969829099</v>
+      </c>
+      <c r="F39">
+        <v>-0.006764229257582442</v>
+      </c>
+      <c r="G39">
+        <v>0.03444754157051269</v>
+      </c>
+      <c r="H39">
+        <v>-0.0787471803326335</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07319927928511684</v>
+        <v>-0.07200828484803456</v>
       </c>
       <c r="C40">
-        <v>-0.04042038972047145</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.01972252412711408</v>
+      </c>
+      <c r="D40">
+        <v>-0.01116378100440948</v>
+      </c>
+      <c r="E40">
+        <v>0.01787605363276689</v>
+      </c>
+      <c r="F40">
+        <v>0.05344939485078236</v>
+      </c>
+      <c r="G40">
+        <v>0.04417025742529581</v>
+      </c>
+      <c r="H40">
+        <v>0.08079147755014161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04073709211033354</v>
+        <v>-0.04397080611801561</v>
       </c>
       <c r="C41">
-        <v>-0.006414621132185406</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.001434286425198322</v>
+      </c>
+      <c r="D41">
+        <v>-0.03440070448933672</v>
+      </c>
+      <c r="E41">
+        <v>0.003244080318847705</v>
+      </c>
+      <c r="F41">
+        <v>0.01654748820815681</v>
+      </c>
+      <c r="G41">
+        <v>0.01016946419379647</v>
+      </c>
+      <c r="H41">
+        <v>-0.03860039544061196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.046590570459943</v>
+        <v>-0.05757008738605963</v>
       </c>
       <c r="C43">
-        <v>-0.02580605045744916</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.01711659854666824</v>
+      </c>
+      <c r="D43">
+        <v>-0.02497388811306779</v>
+      </c>
+      <c r="E43">
+        <v>0.0215124756153337</v>
+      </c>
+      <c r="F43">
+        <v>-0.009849448020006412</v>
+      </c>
+      <c r="G43">
+        <v>-0.01456856732068578</v>
+      </c>
+      <c r="H43">
+        <v>-0.05483548694359628</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09256962072507721</v>
+        <v>-0.09463842071878104</v>
       </c>
       <c r="C44">
-        <v>-0.09388609764444601</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06463194816902718</v>
+      </c>
+      <c r="D44">
+        <v>-0.05966535643584452</v>
+      </c>
+      <c r="E44">
+        <v>0.09832113978355096</v>
+      </c>
+      <c r="F44">
+        <v>-0.03429162433391163</v>
+      </c>
+      <c r="G44">
+        <v>0.02819589623763439</v>
+      </c>
+      <c r="H44">
+        <v>-0.02392740347434167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02542394565538194</v>
+        <v>-0.03294638081989516</v>
       </c>
       <c r="C46">
-        <v>-0.01413228429571153</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.01031548060555773</v>
+      </c>
+      <c r="D46">
+        <v>-0.03024598301954097</v>
+      </c>
+      <c r="E46">
+        <v>0.03273857349852948</v>
+      </c>
+      <c r="F46">
+        <v>-0.01324914575494477</v>
+      </c>
+      <c r="G46">
+        <v>0.002603141550147832</v>
+      </c>
+      <c r="H46">
+        <v>-0.03951036236198511</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03004469723128838</v>
+        <v>-0.03812535551949173</v>
       </c>
       <c r="C47">
-        <v>-0.02506275164693451</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.01999886614777919</v>
+      </c>
+      <c r="D47">
+        <v>-0.009321808443707913</v>
+      </c>
+      <c r="E47">
+        <v>0.05165961056692432</v>
+      </c>
+      <c r="F47">
+        <v>-0.005305536315381301</v>
+      </c>
+      <c r="G47">
+        <v>-0.03742107248903726</v>
+      </c>
+      <c r="H47">
+        <v>-0.02551630536038734</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03168695531381319</v>
+        <v>-0.03716386350290793</v>
       </c>
       <c r="C48">
-        <v>-0.0162543705288597</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.009297800442483541</v>
+      </c>
+      <c r="D48">
+        <v>-0.01925971189239016</v>
+      </c>
+      <c r="E48">
+        <v>0.04377360262507512</v>
+      </c>
+      <c r="F48">
+        <v>0.00275299211218627</v>
+      </c>
+      <c r="G48">
+        <v>0.008857929484615279</v>
+      </c>
+      <c r="H48">
+        <v>-0.05194570601569392</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.16111643429355</v>
+        <v>-0.1905204988279074</v>
       </c>
       <c r="C49">
-        <v>-0.06563222255829881</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.03609687560682668</v>
+      </c>
+      <c r="D49">
+        <v>-0.03183870025743026</v>
+      </c>
+      <c r="E49">
+        <v>-0.1399548813422004</v>
+      </c>
+      <c r="F49">
+        <v>-0.08201061784842734</v>
+      </c>
+      <c r="G49">
+        <v>-0.05760156751648547</v>
+      </c>
+      <c r="H49">
+        <v>0.2533618973006501</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.0383521946047496</v>
+        <v>-0.04549934404208215</v>
       </c>
       <c r="C50">
-        <v>-0.0231922965037856</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.01593253297894372</v>
+      </c>
+      <c r="D50">
+        <v>-0.02932042818618567</v>
+      </c>
+      <c r="E50">
+        <v>0.0547637124179737</v>
+      </c>
+      <c r="F50">
+        <v>-0.006494761918189955</v>
+      </c>
+      <c r="G50">
+        <v>-0.02248904097299036</v>
+      </c>
+      <c r="H50">
+        <v>-0.06137440109455721</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02609402038351726</v>
+        <v>-0.02943212426340766</v>
       </c>
       <c r="C51">
-        <v>-0.008054763439401065</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.003732192056995996</v>
+      </c>
+      <c r="D51">
+        <v>-0.01486138061601649</v>
+      </c>
+      <c r="E51">
+        <v>0.01684201939500118</v>
+      </c>
+      <c r="F51">
+        <v>-0.01799453692718495</v>
+      </c>
+      <c r="G51">
+        <v>0.003930380738890175</v>
+      </c>
+      <c r="H51">
+        <v>0.00409217817290181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1524313590215709</v>
+        <v>-0.1620715349720633</v>
       </c>
       <c r="C53">
-        <v>-0.08378081005527668</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.05306350139061599</v>
+      </c>
+      <c r="D53">
+        <v>-0.01806064974895832</v>
+      </c>
+      <c r="E53">
+        <v>-0.02329110684555157</v>
+      </c>
+      <c r="F53">
+        <v>-0.01858656734529922</v>
+      </c>
+      <c r="G53">
+        <v>-0.007724266139158989</v>
+      </c>
+      <c r="H53">
+        <v>-0.1513514128423784</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05588778260153413</v>
+        <v>-0.05806352571340026</v>
       </c>
       <c r="C54">
-        <v>-0.02474073444803437</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01264747569751496</v>
+      </c>
+      <c r="D54">
+        <v>-0.01541677790494969</v>
+      </c>
+      <c r="E54">
+        <v>0.05321174225229464</v>
+      </c>
+      <c r="F54">
+        <v>-0.0009855729281483953</v>
+      </c>
+      <c r="G54">
+        <v>0.008523003925666621</v>
+      </c>
+      <c r="H54">
+        <v>-0.05772272816076125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1006673049096467</v>
+        <v>-0.1040143682267901</v>
       </c>
       <c r="C55">
-        <v>-0.05914522013520902</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.03677323808961672</v>
+      </c>
+      <c r="D55">
+        <v>-0.02309014925956298</v>
+      </c>
+      <c r="E55">
+        <v>0.01947597266416533</v>
+      </c>
+      <c r="F55">
+        <v>-0.0141771291468894</v>
+      </c>
+      <c r="G55">
+        <v>-0.0006021595600447967</v>
+      </c>
+      <c r="H55">
+        <v>-0.1371706014822533</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1466053378986678</v>
+        <v>-0.1598236900986804</v>
       </c>
       <c r="C56">
-        <v>-0.09477876250276306</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.06461035354321637</v>
+      </c>
+      <c r="D56">
+        <v>-0.02024743586151196</v>
+      </c>
+      <c r="E56">
+        <v>-0.02110501133755054</v>
+      </c>
+      <c r="F56">
+        <v>-0.03686810501451041</v>
+      </c>
+      <c r="G56">
+        <v>-0.01536684797798675</v>
+      </c>
+      <c r="H56">
+        <v>-0.1560693414268945</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1211146680774793</v>
+        <v>-0.09785385438596321</v>
       </c>
       <c r="C58">
-        <v>-0.007119595434718253</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.03341448764399033</v>
+      </c>
+      <c r="D58">
+        <v>-0.0371023563825271</v>
+      </c>
+      <c r="E58">
+        <v>0.164814763302551</v>
+      </c>
+      <c r="F58">
+        <v>0.02346713983110065</v>
+      </c>
+      <c r="G58">
+        <v>-0.06703162985958409</v>
+      </c>
+      <c r="H58">
+        <v>0.198068498903418</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1162711464873245</v>
+        <v>-0.1366513562712429</v>
       </c>
       <c r="C59">
-        <v>-0.08029440935175051</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.08604236206307771</v>
+      </c>
+      <c r="D59">
+        <v>0.3652949097343635</v>
+      </c>
+      <c r="E59">
+        <v>0.02253354436435208</v>
+      </c>
+      <c r="F59">
+        <v>-0.01903245696147872</v>
+      </c>
+      <c r="G59">
+        <v>-0.03871907538387247</v>
+      </c>
+      <c r="H59">
+        <v>0.001024033317367612</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2032443912466731</v>
+        <v>-0.2320859232355624</v>
       </c>
       <c r="C60">
-        <v>-0.1071331186356035</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.06873508084921985</v>
+      </c>
+      <c r="D60">
+        <v>-0.03781888301763098</v>
+      </c>
+      <c r="E60">
+        <v>-0.08845451702414758</v>
+      </c>
+      <c r="F60">
+        <v>-0.08039441651885107</v>
+      </c>
+      <c r="G60">
+        <v>0.02736372504868662</v>
+      </c>
+      <c r="H60">
+        <v>0.1824075610696815</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07865090960648764</v>
+        <v>-0.08776286906921736</v>
       </c>
       <c r="C61">
-        <v>-0.05140392979458872</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.03504672727340152</v>
+      </c>
+      <c r="D61">
+        <v>-0.04371055025117285</v>
+      </c>
+      <c r="E61">
+        <v>0.0005874997042723861</v>
+      </c>
+      <c r="F61">
+        <v>-0.003395476017650258</v>
+      </c>
+      <c r="G61">
+        <v>-0.002946885535312123</v>
+      </c>
+      <c r="H61">
+        <v>-0.07533809698912276</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1281430390829434</v>
+        <v>-0.1395425101300412</v>
       </c>
       <c r="C62">
-        <v>-0.0691079841724747</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.04269182880960012</v>
+      </c>
+      <c r="D62">
+        <v>-0.02778764937850822</v>
+      </c>
+      <c r="E62">
+        <v>-0.05819422639903771</v>
+      </c>
+      <c r="F62">
+        <v>-0.02335244355486773</v>
+      </c>
+      <c r="G62">
+        <v>0.02274531874850298</v>
+      </c>
+      <c r="H62">
+        <v>-0.1641923401452655</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.0505697281162222</v>
+        <v>-0.05019808002421597</v>
       </c>
       <c r="C63">
-        <v>-0.02606352300202913</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01372231742280647</v>
+      </c>
+      <c r="D63">
+        <v>-0.01947997598179931</v>
+      </c>
+      <c r="E63">
+        <v>0.05230405454052588</v>
+      </c>
+      <c r="F63">
+        <v>0.01658225842752232</v>
+      </c>
+      <c r="G63">
+        <v>0.02611880942507045</v>
+      </c>
+      <c r="H63">
+        <v>-0.05958521664447292</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1072785067048482</v>
+        <v>-0.1099776956737506</v>
       </c>
       <c r="C64">
-        <v>-0.02772183271103348</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.00464988139153671</v>
+      </c>
+      <c r="D64">
+        <v>-0.03911786337687274</v>
+      </c>
+      <c r="E64">
+        <v>0.04755362943265794</v>
+      </c>
+      <c r="F64">
+        <v>-0.04021562744334609</v>
+      </c>
+      <c r="G64">
+        <v>0.04548071985545928</v>
+      </c>
+      <c r="H64">
+        <v>-0.06079748390364949</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1203764390218832</v>
+        <v>-0.1273069991615182</v>
       </c>
       <c r="C65">
-        <v>-0.06262112637714373</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.03951548818886957</v>
+      </c>
+      <c r="D65">
+        <v>0.0009182165143566978</v>
+      </c>
+      <c r="E65">
+        <v>0.01335068635258828</v>
+      </c>
+      <c r="F65">
+        <v>-0.06734532882388435</v>
+      </c>
+      <c r="G65">
+        <v>0.06034104663461973</v>
+      </c>
+      <c r="H65">
+        <v>0.1214433261007237</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1410496083566387</v>
+        <v>-0.1537239473749267</v>
       </c>
       <c r="C66">
-        <v>-0.07765080029486549</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.04502710372752123</v>
+      </c>
+      <c r="D66">
+        <v>-0.1019873729003531</v>
+      </c>
+      <c r="E66">
+        <v>-0.02519757174159567</v>
+      </c>
+      <c r="F66">
+        <v>-0.01751522638862933</v>
+      </c>
+      <c r="G66">
+        <v>0.04047238084287667</v>
+      </c>
+      <c r="H66">
+        <v>-0.1576941610097191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07189628668605209</v>
+        <v>-0.0826686334605512</v>
       </c>
       <c r="C67">
-        <v>-0.01477937627187621</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.003825972167307252</v>
+      </c>
+      <c r="D67">
+        <v>-0.03038869214722513</v>
+      </c>
+      <c r="E67">
+        <v>0.02760808912646196</v>
+      </c>
+      <c r="F67">
+        <v>-0.009178914186624617</v>
+      </c>
+      <c r="G67">
+        <v>-0.00615101478385289</v>
+      </c>
+      <c r="H67">
+        <v>-0.0202457874637085</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05842445934719393</v>
+        <v>-0.05801655998880445</v>
       </c>
       <c r="C68">
-        <v>-0.05103404510831037</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.05667526566642918</v>
+      </c>
+      <c r="D68">
+        <v>0.2698480696238724</v>
+      </c>
+      <c r="E68">
+        <v>0.03681605733908595</v>
+      </c>
+      <c r="F68">
+        <v>-0.01471057545503818</v>
+      </c>
+      <c r="G68">
+        <v>-0.01554170983526667</v>
+      </c>
+      <c r="H68">
+        <v>-0.00763638846137895</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.0536902233879913</v>
+        <v>-0.05320624623803288</v>
       </c>
       <c r="C69">
-        <v>-0.02025698562986602</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.00530511179546765</v>
+      </c>
+      <c r="D69">
+        <v>-0.01609810023699003</v>
+      </c>
+      <c r="E69">
+        <v>0.02470386895066759</v>
+      </c>
+      <c r="F69">
+        <v>0.01016403217201103</v>
+      </c>
+      <c r="G69">
+        <v>-0.01466929556084045</v>
+      </c>
+      <c r="H69">
+        <v>-0.05327936124355574</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.005124142639280476</v>
+        <v>-0.02700753507520356</v>
       </c>
       <c r="C70">
-        <v>0.004182144631168344</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.0008742706911590804</v>
+      </c>
+      <c r="D70">
+        <v>-0.001451902917087833</v>
+      </c>
+      <c r="E70">
+        <v>-0.02296009997276659</v>
+      </c>
+      <c r="F70">
+        <v>-0.03208589186661192</v>
+      </c>
+      <c r="G70">
+        <v>-0.01676918704485375</v>
+      </c>
+      <c r="H70">
+        <v>0.04991293127897255</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05844440611629349</v>
+        <v>-0.06028712409373266</v>
       </c>
       <c r="C71">
-        <v>-0.05053438605855377</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.05914397369659848</v>
+      </c>
+      <c r="D71">
+        <v>0.2950050340368685</v>
+      </c>
+      <c r="E71">
+        <v>0.03489477435496235</v>
+      </c>
+      <c r="F71">
+        <v>-0.04133391069427126</v>
+      </c>
+      <c r="G71">
+        <v>-0.005532578785795472</v>
+      </c>
+      <c r="H71">
+        <v>-0.0152392103743943</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1377304937013522</v>
+        <v>-0.1477726294695635</v>
       </c>
       <c r="C72">
-        <v>-0.06632253643672142</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.03817611738577498</v>
+      </c>
+      <c r="D72">
+        <v>0.01161978022941611</v>
+      </c>
+      <c r="E72">
+        <v>-0.1269063203547408</v>
+      </c>
+      <c r="F72">
+        <v>0.149131322751266</v>
+      </c>
+      <c r="G72">
+        <v>0.1113093175754149</v>
+      </c>
+      <c r="H72">
+        <v>-0.02688461063514189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2699411411904488</v>
+        <v>-0.2869682939764628</v>
       </c>
       <c r="C73">
-        <v>-0.1158514560267745</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.04848870571145597</v>
+      </c>
+      <c r="D73">
+        <v>-0.1014291346497591</v>
+      </c>
+      <c r="E73">
+        <v>-0.2074681475371668</v>
+      </c>
+      <c r="F73">
+        <v>-0.1309303562788466</v>
+      </c>
+      <c r="G73">
+        <v>-0.1682434386540838</v>
+      </c>
+      <c r="H73">
+        <v>0.4854949410738089</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07978159785128816</v>
+        <v>-0.09231237015770313</v>
       </c>
       <c r="C74">
-        <v>-0.07973714832218981</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.05960423792774081</v>
+      </c>
+      <c r="D74">
+        <v>-0.0323772914304568</v>
+      </c>
+      <c r="E74">
+        <v>-0.004715058362694458</v>
+      </c>
+      <c r="F74">
+        <v>0.008586423794271362</v>
+      </c>
+      <c r="G74">
+        <v>-0.04382044786159786</v>
+      </c>
+      <c r="H74">
+        <v>-0.1165745661260844</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09416035381932057</v>
+        <v>-0.09995452254938564</v>
       </c>
       <c r="C75">
-        <v>-0.05645490104298408</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02963444596346939</v>
+      </c>
+      <c r="D75">
+        <v>-0.01400769816675474</v>
+      </c>
+      <c r="E75">
+        <v>0.01140493172277364</v>
+      </c>
+      <c r="F75">
+        <v>-0.02667771281634938</v>
+      </c>
+      <c r="G75">
+        <v>-0.01738715843702293</v>
+      </c>
+      <c r="H75">
+        <v>-0.10776887322759</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1292573397071674</v>
+        <v>-0.1396112309546822</v>
       </c>
       <c r="C76">
-        <v>-0.08639973747705393</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.05659715699685688</v>
+      </c>
+      <c r="D76">
+        <v>-0.05014504595718002</v>
+      </c>
+      <c r="E76">
+        <v>0.03604826494340876</v>
+      </c>
+      <c r="F76">
+        <v>-0.04026524604129145</v>
+      </c>
+      <c r="G76">
+        <v>-0.002807318445471912</v>
+      </c>
+      <c r="H76">
+        <v>-0.1593979044958518</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1156592627445886</v>
+        <v>-0.1115358039793443</v>
       </c>
       <c r="C77">
-        <v>-0.0254877965376976</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.001608896489151473</v>
+      </c>
+      <c r="D77">
+        <v>-0.01958094809618607</v>
+      </c>
+      <c r="E77">
+        <v>0.03487561536456003</v>
+      </c>
+      <c r="F77">
+        <v>-0.1287754338604375</v>
+      </c>
+      <c r="G77">
+        <v>0.8930703774268884</v>
+      </c>
+      <c r="H77">
+        <v>0.1591555644415659</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.09805738860561362</v>
+        <v>-0.1372348508620931</v>
       </c>
       <c r="C78">
-        <v>-0.04112515223193098</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03251133118648964</v>
+      </c>
+      <c r="D78">
+        <v>-0.09246512974636079</v>
+      </c>
+      <c r="E78">
+        <v>0.05653391398985266</v>
+      </c>
+      <c r="F78">
+        <v>-0.02227723171682754</v>
+      </c>
+      <c r="G78">
+        <v>0.06709818977670966</v>
+      </c>
+      <c r="H78">
+        <v>0.04618739825805325</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.147242514633663</v>
+        <v>-0.1523286759849631</v>
       </c>
       <c r="C79">
-        <v>-0.08284744462815016</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.04575656029185687</v>
+      </c>
+      <c r="D79">
+        <v>-0.02632422065551419</v>
+      </c>
+      <c r="E79">
+        <v>-0.01204171441025851</v>
+      </c>
+      <c r="F79">
+        <v>-0.01929651318661452</v>
+      </c>
+      <c r="G79">
+        <v>-0.024084904845518</v>
+      </c>
+      <c r="H79">
+        <v>-0.1723698416242535</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04505614855904575</v>
+        <v>-0.04290929476774916</v>
       </c>
       <c r="C80">
-        <v>-0.01724704329248849</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.006385059152390044</v>
+      </c>
+      <c r="D80">
+        <v>-0.01891146448188522</v>
+      </c>
+      <c r="E80">
+        <v>-0.006391187118068444</v>
+      </c>
+      <c r="F80">
+        <v>0.006310325772032481</v>
+      </c>
+      <c r="G80">
+        <v>-0.03433601348312931</v>
+      </c>
+      <c r="H80">
+        <v>-0.04309052627889225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1157438305844086</v>
+        <v>-0.1201476197736928</v>
       </c>
       <c r="C81">
-        <v>-0.06710409947625529</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.03749701414388476</v>
+      </c>
+      <c r="D81">
+        <v>-0.0235441175919556</v>
+      </c>
+      <c r="E81">
+        <v>0.02919033650703133</v>
+      </c>
+      <c r="F81">
+        <v>-0.01051540128431145</v>
+      </c>
+      <c r="G81">
+        <v>-0.05008137296564946</v>
+      </c>
+      <c r="H81">
+        <v>-0.1472652336003799</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1298126958298283</v>
+        <v>-0.1305775197502585</v>
       </c>
       <c r="C82">
-        <v>-0.08156565178962348</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.04898625311361983</v>
+      </c>
+      <c r="D82">
+        <v>-0.02736056732505191</v>
+      </c>
+      <c r="E82">
+        <v>-0.007737811146961826</v>
+      </c>
+      <c r="F82">
+        <v>-0.05693833655998645</v>
+      </c>
+      <c r="G82">
+        <v>-0.03761225424189882</v>
+      </c>
+      <c r="H82">
+        <v>-0.1936157942440352</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.08174154357015638</v>
+        <v>-0.08964767636628145</v>
       </c>
       <c r="C83">
-        <v>0.001864039996193974</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.02000158356417662</v>
+      </c>
+      <c r="D83">
+        <v>-0.03571764857301917</v>
+      </c>
+      <c r="E83">
+        <v>0.02275811607986867</v>
+      </c>
+      <c r="F83">
+        <v>-0.05220955467224465</v>
+      </c>
+      <c r="G83">
+        <v>-0.07676263478543849</v>
+      </c>
+      <c r="H83">
+        <v>0.04942062256541758</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.0279575213056142</v>
+        <v>-0.03832924536351206</v>
       </c>
       <c r="C84">
-        <v>-0.02515240896407357</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.02006319244674897</v>
+      </c>
+      <c r="D84">
+        <v>-0.02915456871231153</v>
+      </c>
+      <c r="E84">
+        <v>0.01904357784803145</v>
+      </c>
+      <c r="F84">
+        <v>0.05433657252552705</v>
+      </c>
+      <c r="G84">
+        <v>-0.0602975857181688</v>
+      </c>
+      <c r="H84">
+        <v>-0.01532313720302304</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1183640526510186</v>
+        <v>-0.1195985464262835</v>
       </c>
       <c r="C85">
-        <v>-0.06323452812611567</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.03181503841309903</v>
+      </c>
+      <c r="D85">
+        <v>-0.02455144554693572</v>
+      </c>
+      <c r="E85">
+        <v>0.02431665672288619</v>
+      </c>
+      <c r="F85">
+        <v>-0.03835675653435397</v>
+      </c>
+      <c r="G85">
+        <v>-0.01879150611854043</v>
+      </c>
+      <c r="H85">
+        <v>-0.1468793462148062</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05017045249004297</v>
+        <v>-0.05886096561910845</v>
       </c>
       <c r="C86">
-        <v>-0.02986327087338322</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.01886569698514961</v>
+      </c>
+      <c r="D86">
+        <v>-0.02260679455929436</v>
+      </c>
+      <c r="E86">
+        <v>0.06610574069170977</v>
+      </c>
+      <c r="F86">
+        <v>-0.02536307274151385</v>
+      </c>
+      <c r="G86">
+        <v>-0.01986092583102058</v>
+      </c>
+      <c r="H86">
+        <v>0.004702717528188986</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1209541837454571</v>
+        <v>-0.1223985493005436</v>
       </c>
       <c r="C87">
-        <v>-0.07147014460825479</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.03562274486161315</v>
+      </c>
+      <c r="D87">
+        <v>-0.07605866834700285</v>
+      </c>
+      <c r="E87">
+        <v>0.02241531055287622</v>
+      </c>
+      <c r="F87">
+        <v>0.006624614590078536</v>
+      </c>
+      <c r="G87">
+        <v>0.1127973362388706</v>
+      </c>
+      <c r="H87">
+        <v>0.02141941796121137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05319223727832702</v>
+        <v>-0.06077578105337878</v>
       </c>
       <c r="C88">
-        <v>-0.03019913742664663</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.01905124641654502</v>
+      </c>
+      <c r="D88">
+        <v>-0.02847802223596381</v>
+      </c>
+      <c r="E88">
+        <v>0.02211147246177482</v>
+      </c>
+      <c r="F88">
+        <v>-0.005948013620636051</v>
+      </c>
+      <c r="G88">
+        <v>0.008467658001380331</v>
+      </c>
+      <c r="H88">
+        <v>-0.05577842404792537</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.0799333933221742</v>
+        <v>-0.09177600811470629</v>
       </c>
       <c r="C89">
-        <v>-0.06716939487552792</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.07753053059406434</v>
+      </c>
+      <c r="D89">
+        <v>0.3425247248738816</v>
+      </c>
+      <c r="E89">
+        <v>0.074159028672861</v>
+      </c>
+      <c r="F89">
+        <v>-0.07851241761012254</v>
+      </c>
+      <c r="G89">
+        <v>-0.02232401252823522</v>
+      </c>
+      <c r="H89">
+        <v>-0.007817441532982576</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07282377448038778</v>
+        <v>-0.07898665441357614</v>
       </c>
       <c r="C90">
-        <v>-0.0597451483375368</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.06705029586406658</v>
+      </c>
+      <c r="D90">
+        <v>0.310730877107011</v>
+      </c>
+      <c r="E90">
+        <v>0.05989981745888587</v>
+      </c>
+      <c r="F90">
+        <v>0.0008045635963475464</v>
+      </c>
+      <c r="G90">
+        <v>-0.004787353863200781</v>
+      </c>
+      <c r="H90">
+        <v>-0.01228251934892184</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08449296148641133</v>
+        <v>-0.08958532944861015</v>
       </c>
       <c r="C91">
-        <v>-0.05610706286214278</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.03336901283196293</v>
+      </c>
+      <c r="D91">
+        <v>-0.03083498974022431</v>
+      </c>
+      <c r="E91">
+        <v>0.01559381943420541</v>
+      </c>
+      <c r="F91">
+        <v>-0.002610212200408718</v>
+      </c>
+      <c r="G91">
+        <v>-0.05440671034014267</v>
+      </c>
+      <c r="H91">
+        <v>-0.07391415291635178</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07402958278092077</v>
+        <v>-0.07949031811700635</v>
       </c>
       <c r="C92">
-        <v>-0.07316962497822077</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.0806642438454593</v>
+      </c>
+      <c r="D92">
+        <v>0.3415768771715321</v>
+      </c>
+      <c r="E92">
+        <v>0.04744894983986975</v>
+      </c>
+      <c r="F92">
+        <v>-0.03678559449629831</v>
+      </c>
+      <c r="G92">
+        <v>0.007499754003086591</v>
+      </c>
+      <c r="H92">
+        <v>-0.02434703163487362</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06600196318394269</v>
+        <v>-0.07776629470854621</v>
       </c>
       <c r="C93">
-        <v>-0.06635685179780301</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.07856547565541903</v>
+      </c>
+      <c r="D93">
+        <v>0.308325809757713</v>
+      </c>
+      <c r="E93">
+        <v>0.03861872826744196</v>
+      </c>
+      <c r="F93">
+        <v>-0.04148483206474469</v>
+      </c>
+      <c r="G93">
+        <v>0.01047008061172855</v>
+      </c>
+      <c r="H93">
+        <v>0.005581933617230752</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.133075207194659</v>
+        <v>-0.1272102556860389</v>
       </c>
       <c r="C94">
-        <v>-0.06122040758497565</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.02273955789499363</v>
+      </c>
+      <c r="D94">
+        <v>-0.04781573194351778</v>
+      </c>
+      <c r="E94">
+        <v>-0.00129059264387798</v>
+      </c>
+      <c r="F94">
+        <v>-0.01961405624544125</v>
+      </c>
+      <c r="G94">
+        <v>-0.05152290293845061</v>
+      </c>
+      <c r="H94">
+        <v>-0.09457350568012483</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1187542971380302</v>
+        <v>-0.1291794419110832</v>
       </c>
       <c r="C95">
-        <v>-0.03720687323984564</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.008393500358828434</v>
+      </c>
+      <c r="D95">
+        <v>-0.06111548491375732</v>
+      </c>
+      <c r="E95">
+        <v>0.013497698836956</v>
+      </c>
+      <c r="F95">
+        <v>-0.04699085555595339</v>
+      </c>
+      <c r="G95">
+        <v>-0.0117111735260041</v>
+      </c>
+      <c r="H95">
+        <v>0.02402210903238394</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2019490419227123</v>
+        <v>-0.2103297178707101</v>
       </c>
       <c r="C97">
-        <v>-0.04522831309680664</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.00567115024327683</v>
+      </c>
+      <c r="D97">
+        <v>0.09453814426286625</v>
+      </c>
+      <c r="E97">
+        <v>-0.3628722606126452</v>
+      </c>
+      <c r="F97">
+        <v>0.8453233244279039</v>
+      </c>
+      <c r="G97">
+        <v>0.090955977660059</v>
+      </c>
+      <c r="H97">
+        <v>-0.007037907506706869</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2441497758196096</v>
+        <v>-0.2746780778654071</v>
       </c>
       <c r="C98">
-        <v>-0.08270236820602163</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.0349730122071018</v>
+      </c>
+      <c r="D98">
+        <v>-0.06174691126223124</v>
+      </c>
+      <c r="E98">
+        <v>-0.1641584336809987</v>
+      </c>
+      <c r="F98">
+        <v>-0.0910669440684059</v>
+      </c>
+      <c r="G98">
+        <v>-0.2521204523009308</v>
+      </c>
+      <c r="H98">
+        <v>0.2459172928284562</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.465051588602637</v>
+        <v>-0.2843430791799389</v>
       </c>
       <c r="C99">
-        <v>0.8701353736001816</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9362510580027175</v>
+      </c>
+      <c r="D99">
+        <v>0.128153515089306</v>
+      </c>
+      <c r="E99">
+        <v>0.06553843133194198</v>
+      </c>
+      <c r="F99">
+        <v>-0.04126167132852459</v>
+      </c>
+      <c r="G99">
+        <v>-0.01440090497386069</v>
+      </c>
+      <c r="H99">
+        <v>-0.06375375979855406</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04059571894894598</v>
+        <v>-0.04859456948675582</v>
       </c>
       <c r="C101">
-        <v>-0.03232047509280892</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02606993472539709</v>
+      </c>
+      <c r="D101">
+        <v>-0.00485350789118718</v>
+      </c>
+      <c r="E101">
+        <v>0.05612449734597326</v>
+      </c>
+      <c r="F101">
+        <v>0.003253130882127744</v>
+      </c>
+      <c r="G101">
+        <v>-0.008404282718267984</v>
+      </c>
+      <c r="H101">
+        <v>-0.0854564512262309</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
